--- a/UPLOADED_DATA/data.xlsx
+++ b/UPLOADED_DATA/data.xlsx
@@ -5,23 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birdl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birdl\Desktop\Year 4\Term 2\COSC 310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF076506-BDB1-458D-8551-E409E9EA4EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4D96F-B668-4D6B-B980-2D0603336DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1020" windowWidth="21624" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,8 +355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -354,7 +369,7 @@
         <v>45516</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -362,7 +377,7 @@
         <v>45517</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -370,7 +385,7 @@
         <v>45518</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -378,7 +393,7 @@
         <v>45519</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -386,7 +401,7 @@
         <v>45520</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -394,7 +409,7 @@
         <v>45521</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -402,7 +417,7 @@
         <v>45522</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -410,7 +425,7 @@
         <v>45523</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>13.600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -418,7 +433,7 @@
         <v>45524</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -426,7 +441,7 @@
         <v>45525</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -434,7 +449,7 @@
         <v>45526</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>10.700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,7 +457,7 @@
         <v>45527</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +465,7 @@
         <v>45528</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -458,7 +473,7 @@
         <v>45529</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -466,7 +481,7 @@
         <v>45530</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +489,7 @@
         <v>45531</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,7 +497,7 @@
         <v>45532</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +505,7 @@
         <v>45533</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +513,7 @@
         <v>45534</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +521,7 @@
         <v>45535</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +529,7 @@
         <v>45536</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -522,7 +537,7 @@
         <v>45537</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -530,7 +545,7 @@
         <v>45538</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +553,7 @@
         <v>45539</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +561,7 @@
         <v>45540</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +569,7 @@
         <v>45541</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +577,7 @@
         <v>45542</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +585,7 @@
         <v>45543</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +593,7 @@
         <v>45544</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +601,7 @@
         <v>45545</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,7 +609,7 @@
         <v>45546</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +617,7 @@
         <v>45547</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +625,7 @@
         <v>45548</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +633,7 @@
         <v>45549</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,7 +641,7 @@
         <v>45550</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,7 +649,7 @@
         <v>45551</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -642,7 +657,7 @@
         <v>45552</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +665,7 @@
         <v>45553</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +673,7 @@
         <v>45554</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +681,7 @@
         <v>45555</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>10.700000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +689,7 @@
         <v>45556</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +697,7 @@
         <v>45557</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +705,7 @@
         <v>45558</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>13.600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,7 +713,7 @@
         <v>45559</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +721,7 @@
         <v>45560</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +729,7 @@
         <v>45561</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +737,7 @@
         <v>45562</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +745,7 @@
         <v>45563</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +753,7 @@
         <v>45564</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -746,7 +761,7 @@
         <v>45565</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +769,7 @@
         <v>45566</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +777,7 @@
         <v>45567</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +785,7 @@
         <v>45568</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +793,7 @@
         <v>45569</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,7 +801,7 @@
         <v>45570</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +809,7 @@
         <v>45571</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +817,7 @@
         <v>45572</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +825,7 @@
         <v>45573</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +833,7 @@
         <v>45574</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>25.099999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -826,7 +841,7 @@
         <v>45575</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>25.299999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +849,7 @@
         <v>45576</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +857,7 @@
         <v>45577</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +865,7 @@
         <v>45578</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +873,7 @@
         <v>45579</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,7 +881,7 @@
         <v>45580</v>
       </c>
       <c r="B65">
-        <v>65</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -874,7 +889,7 @@
         <v>45581</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,7 +897,7 @@
         <v>45582</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -890,7 +905,7 @@
         <v>45583</v>
       </c>
       <c r="B68">
-        <v>68</v>
+        <v>26.299999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,7 +913,7 @@
         <v>45584</v>
       </c>
       <c r="B69">
-        <v>69</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -906,7 +921,7 @@
         <v>45585</v>
       </c>
       <c r="B70">
-        <v>70</v>
+        <v>27.599999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -914,7 +929,7 @@
         <v>45586</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>28.700000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -922,7 +937,7 @@
         <v>45587</v>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,7 +945,7 @@
         <v>45588</v>
       </c>
       <c r="B73">
-        <v>73</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +953,7 @@
         <v>45589</v>
       </c>
       <c r="B74">
-        <v>74</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -946,7 +961,7 @@
         <v>45590</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +969,7 @@
         <v>45591</v>
       </c>
       <c r="B76">
-        <v>76</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +977,7 @@
         <v>45592</v>
       </c>
       <c r="B77">
-        <v>77</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -970,7 +985,7 @@
         <v>45593</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>28.700000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +993,7 @@
         <v>45594</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>27.599999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -986,7 +1001,7 @@
         <v>45595</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -994,7 +1009,7 @@
         <v>45596</v>
       </c>
       <c r="B81">
-        <v>81</v>
+        <v>26.299999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,7 +1017,7 @@
         <v>45597</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1010,7 +1025,7 @@
         <v>45598</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1018,7 +1033,7 @@
         <v>45599</v>
       </c>
       <c r="B84">
-        <v>84</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1026,7 +1041,7 @@
         <v>45600</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1034,7 +1049,7 @@
         <v>45601</v>
       </c>
       <c r="B86">
-        <v>86</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1042,7 +1057,7 @@
         <v>45602</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1050,7 +1065,7 @@
         <v>45603</v>
       </c>
       <c r="B88">
-        <v>88</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,7 +1073,7 @@
         <v>45604</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>25.299999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,7 +1081,7 @@
         <v>45605</v>
       </c>
       <c r="B90">
-        <v>90</v>
+        <v>25.099999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1074,7 +1089,7 @@
         <v>45606</v>
       </c>
       <c r="B91">
-        <v>91</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1082,7 +1097,7 @@
         <v>45607</v>
       </c>
       <c r="B92">
-        <v>92</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1090,7 +1105,7 @@
         <v>45608</v>
       </c>
       <c r="B93">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1098,7 +1113,7 @@
         <v>45609</v>
       </c>
       <c r="B94">
-        <v>94</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1106,7 +1121,7 @@
         <v>45610</v>
       </c>
       <c r="B95">
-        <v>95</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1114,7 +1129,7 @@
         <v>45611</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1122,7 +1137,7 @@
         <v>45612</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1130,7 +1145,7 @@
         <v>45613</v>
       </c>
       <c r="B98">
-        <v>98</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1153,7 @@
         <v>45614</v>
       </c>
       <c r="B99">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
